--- a/migration_mimu_data/district.xlsx
+++ b/migration_mimu_data/district.xlsx
@@ -1,828 +1,825 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="districts" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="districts"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="419">
   <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR Name_Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAD Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAD Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District_Pcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District_Name_Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District_Name_MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYAINFO_D_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start_Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modified_End_Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notification_modified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAD_District_Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field_District_Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIMU_District_Mapping_Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change_Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kachin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR001D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myitkyina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မြစ်ကြီးနားခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR001D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR001D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohnyin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မိုးညှင်းခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR001D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR001D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ဗန်းမော်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR001D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR001D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puta-O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ပူတာအိုခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR001D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR002D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loikaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">လွိုင်ကော်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR002D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR002D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bawlake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ဘောလခဲခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR002D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR003D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hpa-An</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ဘားအံခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR003D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200/20-73/U-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another district is Hpapun (MMR003D004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR003D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myawaddy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မြဝတီခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR003D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR003D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kawkareik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ကော့ကရိတ်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR003D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR003D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hpapun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ဖာပွန်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR003D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split from Hpa-An District (MMR003D001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR004D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ဖလမ်းခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR004D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 429/2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another District is Hakha (MMR004D003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR004D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mindat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မင်းတပ်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR004D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 987/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another District is Matupi (MMR004D004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR004D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hakha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ဟားခါးခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR004D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split from Falam District (MMR004D001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR004D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matupi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မတူပီခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sagaing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR005D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">စစ်ကိုင်းခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR005D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR005D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shwebo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ရွှေဘိုခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR005D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 354/2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another District is Kanbalu Distict (MMR005D010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR005D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monywa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မုံရွာခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR005D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 520/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another District is Yinmarbin (MMR005D009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR005D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ကသာခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR005D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 1604/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another District name is Kawlin (MMR005D011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR005D005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ကလေးခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR005D005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR005D006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">တမူးခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR005D006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR005D007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mawlaik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မော်လိုက်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR005D007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR005D008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hkamti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ခန္တီးခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR005D008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR005D009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yinmarbin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ယင်းမာပင်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR005D009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split from Monywa District (MMR005D003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR005D010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanbalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ကန့်ဘလူခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR005D010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split from Shwebo District 9MMR005D002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR005D011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kawlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ကောလင်းခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanintharyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR006D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dawei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ထားဝယ်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR006D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR006D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myeik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မြိတ်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR006D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR006D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kawthoung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ကော့သောင်းခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR006D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bago (East)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR007D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ပဲခူးခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR007D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR007D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taungoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">တောင်ငူခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR007D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bago (West)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR008D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ပြည်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR008D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR008D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thayarwady</t>
-  </si>
-  <si>
-    <t xml:space="preserve">သာယာဝတီခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR008D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR009D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မကွေးခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR009D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR009D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minbu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မင်းဘူးခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR009D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR009D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thayet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">သရက်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR009D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR009D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakokku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ပခုက္ကူခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR009D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR009D005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gangaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ဂန့်ဂေါခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR009D005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandalay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR010D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မန္တလေးခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR010D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR010D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyinoolwin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ပြင်ဦးလွင်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR010D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR010D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyaukse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ကျောက်ဆည်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR010D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR010D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myingyan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မြင်းခြံခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR010D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR010D005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyaung-U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ညောင်ဦးခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR010D005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR010D006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yamethin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ရမည်းသင်းခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR010D006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR010D007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meiktila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မိတ္ထီလာခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR010D007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR011D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mawlamyine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မော်လမြိုင်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR011D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR011D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thaton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">သထုံခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR011D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rakhine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR012D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sittwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">စစ်တွေခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR012D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 1/2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another district is Mrauk-U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR012D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maungdaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မောင်တောခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR012D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR012D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyaukpyu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ကျောက်ဖြူခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR012D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR012D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thandwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">သံတွဲခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR012D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR012D005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mrauk-U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မြောက်ဦးခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR012D005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR013D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangon (North)</t>
-  </si>
-  <si>
+    <t>SR_Pcode</t>
+  </si>
+  <si>
+    <t>SR_Name_Eng</t>
+  </si>
+  <si>
+    <t>SAD Code</t>
+  </si>
+  <si>
+    <t>SAD Name</t>
+  </si>
+  <si>
+    <t>District_Pcode</t>
+  </si>
+  <si>
+    <t>District_Name_Eng</t>
+  </si>
+  <si>
+    <t>District_Name_MMR</t>
+  </si>
+  <si>
+    <t>MYAINFO_D_ID</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Start_Date</t>
+  </si>
+  <si>
+    <t>Modified_End_Date</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Notification_modified</t>
+  </si>
+  <si>
+    <t>GAD_District_Status</t>
+  </si>
+  <si>
+    <t>Field_District_Status</t>
+  </si>
+  <si>
+    <t>MIMU_District_Mapping_Status</t>
+  </si>
+  <si>
+    <t>Change_Type</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>Kachin</t>
+  </si>
+  <si>
+    <t>MMR001D001</t>
+  </si>
+  <si>
+    <t>Myitkyina</t>
+  </si>
+  <si>
+    <t>မြစ်ကြီးနားခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR001D001</t>
+  </si>
+  <si>
+    <t>GAD</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MMR001D002</t>
+  </si>
+  <si>
+    <t>Mohnyin</t>
+  </si>
+  <si>
+    <t>မိုးညှင်းခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR001D002</t>
+  </si>
+  <si>
+    <t>MMR001D003</t>
+  </si>
+  <si>
+    <t>Bhamo</t>
+  </si>
+  <si>
+    <t>ဗန်းမော်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR001D003</t>
+  </si>
+  <si>
+    <t>MMR001D004</t>
+  </si>
+  <si>
+    <t>Puta-O</t>
+  </si>
+  <si>
+    <t>ပူတာအိုခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR001D004</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>Kayah</t>
+  </si>
+  <si>
+    <t>MMR002D001</t>
+  </si>
+  <si>
+    <t>Loikaw</t>
+  </si>
+  <si>
+    <t>လွိုင်ကော်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR002D001</t>
+  </si>
+  <si>
+    <t>MMR002D002</t>
+  </si>
+  <si>
+    <t>Bawlake</t>
+  </si>
+  <si>
+    <t>ဘောလခဲခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR002D002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>Kayin</t>
+  </si>
+  <si>
+    <t>MMR003D001</t>
+  </si>
+  <si>
+    <t>Hpa-An</t>
+  </si>
+  <si>
+    <t>ဘားအံခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR003D001</t>
+  </si>
+  <si>
+    <t>200/20-73/U-1</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Another district is Hpapun (MMR003D004)</t>
+  </si>
+  <si>
+    <t>MMR003D002</t>
+  </si>
+  <si>
+    <t>Myawaddy</t>
+  </si>
+  <si>
+    <t>မြဝတီခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR003D002</t>
+  </si>
+  <si>
+    <t>MMR003D003</t>
+  </si>
+  <si>
+    <t>Kawkareik</t>
+  </si>
+  <si>
+    <t>ကော့ကရိတ်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR003D003</t>
+  </si>
+  <si>
+    <t>MMR003D004</t>
+  </si>
+  <si>
+    <t>Hpapun</t>
+  </si>
+  <si>
+    <t>ဖာပွန်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR003D004</t>
+  </si>
+  <si>
+    <t>Split from Hpa-An District (MMR003D001)</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>Chin</t>
+  </si>
+  <si>
+    <t>MMR004D001</t>
+  </si>
+  <si>
+    <t>Falam</t>
+  </si>
+  <si>
+    <t>ဖလမ်းခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR004D001</t>
+  </si>
+  <si>
+    <t>No. 429/2012</t>
+  </si>
+  <si>
+    <t>Another District is Hakha (MMR004D003)</t>
+  </si>
+  <si>
+    <t>MMR004D002</t>
+  </si>
+  <si>
+    <t>Mindat</t>
+  </si>
+  <si>
+    <t>မင်းတပ်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR004D002</t>
+  </si>
+  <si>
+    <t>No. 987/2017</t>
+  </si>
+  <si>
+    <t>Another District is Matupi (MMR004D004)</t>
+  </si>
+  <si>
+    <t>MMR004D003</t>
+  </si>
+  <si>
+    <t>Hakha</t>
+  </si>
+  <si>
+    <t>ဟားခါးခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR004D003</t>
+  </si>
+  <si>
+    <t>Split from Falam District (MMR004D001)</t>
+  </si>
+  <si>
+    <t>MMR004D004</t>
+  </si>
+  <si>
+    <t>Matupi</t>
+  </si>
+  <si>
+    <t>မတူပီခရိုင်</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>Sagaing</t>
+  </si>
+  <si>
+    <t>MMR005D001</t>
+  </si>
+  <si>
+    <t>စစ်ကိုင်းခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR005D001</t>
+  </si>
+  <si>
+    <t>MMR005D002</t>
+  </si>
+  <si>
+    <t>Shwebo</t>
+  </si>
+  <si>
+    <t>ရွှေဘိုခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR005D002</t>
+  </si>
+  <si>
+    <t>No. 354/2015</t>
+  </si>
+  <si>
+    <t>Another District is Kanbalu Distict (MMR005D010)</t>
+  </si>
+  <si>
+    <t>MMR005D003</t>
+  </si>
+  <si>
+    <t>Monywa</t>
+  </si>
+  <si>
+    <t>မုံရွာခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR005D003</t>
+  </si>
+  <si>
+    <t>No. 520/2013</t>
+  </si>
+  <si>
+    <t>Another District is Yinmarbin (MMR005D009)</t>
+  </si>
+  <si>
+    <t>MMR005D004</t>
+  </si>
+  <si>
+    <t>Katha</t>
+  </si>
+  <si>
+    <t>ကသာခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR005D004</t>
+  </si>
+  <si>
+    <t>No. 1604/2018</t>
+  </si>
+  <si>
+    <t>Another District name is Kawlin (MMR005D011)</t>
+  </si>
+  <si>
+    <t>MMR005D005</t>
+  </si>
+  <si>
+    <t>Kale</t>
+  </si>
+  <si>
+    <t>ကလေးခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR005D005</t>
+  </si>
+  <si>
+    <t>MMR005D006</t>
+  </si>
+  <si>
+    <t>Tamu</t>
+  </si>
+  <si>
+    <t>တမူးခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR005D006</t>
+  </si>
+  <si>
+    <t>MMR005D007</t>
+  </si>
+  <si>
+    <t>Mawlaik</t>
+  </si>
+  <si>
+    <t>မော်လိုက်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR005D007</t>
+  </si>
+  <si>
+    <t>MMR005D008</t>
+  </si>
+  <si>
+    <t>Hkamti</t>
+  </si>
+  <si>
+    <t>ခန္တီးခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR005D008</t>
+  </si>
+  <si>
+    <t>MMR005D009</t>
+  </si>
+  <si>
+    <t>Yinmarbin</t>
+  </si>
+  <si>
+    <t>ယင်းမာပင်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR005D009</t>
+  </si>
+  <si>
+    <t>Split from Monywa District (MMR005D003)</t>
+  </si>
+  <si>
+    <t>MMR005D010</t>
+  </si>
+  <si>
+    <t>Kanbalu</t>
+  </si>
+  <si>
+    <t>ကန့်ဘလူခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR005D010</t>
+  </si>
+  <si>
+    <t>Split from Shwebo District 9MMR005D002)</t>
+  </si>
+  <si>
+    <t>MMR005D011</t>
+  </si>
+  <si>
+    <t>Kawlin</t>
+  </si>
+  <si>
+    <t>ကောလင်းခရိုင်</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>Tanintharyi</t>
+  </si>
+  <si>
+    <t>MMR006D001</t>
+  </si>
+  <si>
+    <t>Dawei</t>
+  </si>
+  <si>
+    <t>ထားဝယ်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR006D001</t>
+  </si>
+  <si>
+    <t>MMR006D002</t>
+  </si>
+  <si>
+    <t>Myeik</t>
+  </si>
+  <si>
+    <t>မြိတ်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR006D002</t>
+  </si>
+  <si>
+    <t>MMR006D003</t>
+  </si>
+  <si>
+    <t>Kawthoung</t>
+  </si>
+  <si>
+    <t>ကော့သောင်းခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR006D003</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>Bago (East)</t>
+  </si>
+  <si>
+    <t>MMR007D001</t>
+  </si>
+  <si>
+    <t>Bago</t>
+  </si>
+  <si>
+    <t>ပဲခူးခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR007D001</t>
+  </si>
+  <si>
+    <t>MMR007D002</t>
+  </si>
+  <si>
+    <t>Taungoo</t>
+  </si>
+  <si>
+    <t>တောင်ငူခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR007D002</t>
+  </si>
+  <si>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>Bago (West)</t>
+  </si>
+  <si>
+    <t>MMR008D001</t>
+  </si>
+  <si>
+    <t>Pyay</t>
+  </si>
+  <si>
+    <t>ပြည်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR008D001</t>
+  </si>
+  <si>
+    <t>MMR008D002</t>
+  </si>
+  <si>
+    <t>Thayarwady</t>
+  </si>
+  <si>
+    <t>သာယာဝတီခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR008D002</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>Magway</t>
+  </si>
+  <si>
+    <t>MMR009D001</t>
+  </si>
+  <si>
+    <t>မကွေးခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR009D001</t>
+  </si>
+  <si>
+    <t>MMR009D002</t>
+  </si>
+  <si>
+    <t>Minbu</t>
+  </si>
+  <si>
+    <t>မင်းဘူးခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR009D002</t>
+  </si>
+  <si>
+    <t>MMR009D003</t>
+  </si>
+  <si>
+    <t>Thayet</t>
+  </si>
+  <si>
+    <t>သရက်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR009D003</t>
+  </si>
+  <si>
+    <t>MMR009D004</t>
+  </si>
+  <si>
+    <t>Pakokku</t>
+  </si>
+  <si>
+    <t>ပခုက္ကူခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR009D004</t>
+  </si>
+  <si>
+    <t>MMR009D005</t>
+  </si>
+  <si>
+    <t>Gangaw</t>
+  </si>
+  <si>
+    <t>ဂန့်ဂေါခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR009D005</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>Mandalay</t>
+  </si>
+  <si>
+    <t>MMR010D001</t>
+  </si>
+  <si>
+    <t>မန္တလေးခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR010D001</t>
+  </si>
+  <si>
+    <t>MMR010D002</t>
+  </si>
+  <si>
+    <t>Pyinoolwin</t>
+  </si>
+  <si>
+    <t>ပြင်ဦးလွင်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR010D002</t>
+  </si>
+  <si>
+    <t>MMR010D003</t>
+  </si>
+  <si>
+    <t>Kyaukse</t>
+  </si>
+  <si>
+    <t>ကျောက်ဆည်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR010D003</t>
+  </si>
+  <si>
+    <t>MMR010D004</t>
+  </si>
+  <si>
+    <t>Myingyan</t>
+  </si>
+  <si>
+    <t>မြင်းခြံခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR010D004</t>
+  </si>
+  <si>
+    <t>MMR010D005</t>
+  </si>
+  <si>
+    <t>Nyaung-U</t>
+  </si>
+  <si>
+    <t>ညောင်ဦးခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR010D005</t>
+  </si>
+  <si>
+    <t>MMR010D006</t>
+  </si>
+  <si>
+    <t>Yamethin</t>
+  </si>
+  <si>
+    <t>ရမည်းသင်းခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR010D006</t>
+  </si>
+  <si>
+    <t>MMR010D007</t>
+  </si>
+  <si>
+    <t>Meiktila</t>
+  </si>
+  <si>
+    <t>မိတ္ထီလာခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR010D007</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>MMR011D001</t>
+  </si>
+  <si>
+    <t>Mawlamyine</t>
+  </si>
+  <si>
+    <t>မော်လမြိုင်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR011D001</t>
+  </si>
+  <si>
+    <t>MMR011D002</t>
+  </si>
+  <si>
+    <t>Thaton</t>
+  </si>
+  <si>
+    <t>သထုံခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR011D002</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>Rakhine</t>
+  </si>
+  <si>
+    <t>MMR012D001</t>
+  </si>
+  <si>
+    <t>Sittwe</t>
+  </si>
+  <si>
+    <t>စစ်တွေခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR012D001</t>
+  </si>
+  <si>
+    <t>No. 1/2012</t>
+  </si>
+  <si>
+    <t>Another district is Mrauk-U</t>
+  </si>
+  <si>
+    <t>MMR012D002</t>
+  </si>
+  <si>
+    <t>Maungdaw</t>
+  </si>
+  <si>
+    <t>မောင်တောခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR012D002</t>
+  </si>
+  <si>
+    <t>MMR012D003</t>
+  </si>
+  <si>
+    <t>Kyaukpyu</t>
+  </si>
+  <si>
+    <t>ကျောက်ဖြူခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR012D003</t>
+  </si>
+  <si>
+    <t>MMR012D004</t>
+  </si>
+  <si>
+    <t>Thandwe</t>
+  </si>
+  <si>
+    <t>သံတွဲခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR012D004</t>
+  </si>
+  <si>
+    <t>MMR012D005</t>
+  </si>
+  <si>
+    <t>Mrauk-U</t>
+  </si>
+  <si>
+    <t>မြောက်ဦးခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR012D005</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>Yangon</t>
+  </si>
+  <si>
+    <t>MMR013D001</t>
+  </si>
+  <si>
+    <t>Yangon (North)</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -830,7 +827,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ရန်ကုန်</t>
+      <t>ရန်ကုန်</t>
     </r>
     <r>
       <rPr>
@@ -839,7 +836,7 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -848,7 +845,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">မြောက်ပိုင်း</t>
+      <t>မြောက်ပိုင်း</t>
     </r>
     <r>
       <rPr>
@@ -857,19 +854,22 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ASIMMR013D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR013D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangon (East)</t>
-  </si>
-  <si>
+    <t>ASIMMR013D001</t>
+  </si>
+  <si>
+    <t>MMR013D002</t>
+  </si>
+  <si>
+    <t>Yangon (East)</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -877,7 +877,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ရန်ကုန်</t>
+      <t>ရန်ကုန်</t>
     </r>
     <r>
       <rPr>
@@ -886,7 +886,7 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -895,7 +895,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">အရှေ့ပိုင်း</t>
+      <t>အရှေ့ပိုင်း</t>
     </r>
     <r>
       <rPr>
@@ -904,19 +904,22 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ASIMMR013D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR013D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangon (South)</t>
-  </si>
-  <si>
+    <t>ASIMMR013D002</t>
+  </si>
+  <si>
+    <t>MMR013D003</t>
+  </si>
+  <si>
+    <t>Yangon (South)</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -924,7 +927,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ရန်ကုန်</t>
+      <t>ရန်ကုန်</t>
     </r>
     <r>
       <rPr>
@@ -933,7 +936,7 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -942,7 +945,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">တောင်ပိုင်း</t>
+      <t>တောင်ပိုင်း</t>
     </r>
     <r>
       <rPr>
@@ -951,19 +954,22 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ASIMMR013D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR013D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangon (West)</t>
-  </si>
-  <si>
+    <t>ASIMMR013D003</t>
+  </si>
+  <si>
+    <t>MMR013D004</t>
+  </si>
+  <si>
+    <t>Yangon (West)</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -971,7 +977,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ရန်ကုန်</t>
+      <t>ရန်ကုန်</t>
     </r>
     <r>
       <rPr>
@@ -980,7 +986,7 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -989,7 +995,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">အနောက်ပိုင်း</t>
+      <t>အနောက်ပိုင်း</t>
     </r>
     <r>
       <rPr>
@@ -998,211 +1004,214 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ASIMMR013D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shan (South)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR014D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taunggyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">တောင်ကြီးခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR014D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR014D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loilen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">လွိုင်လင်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR014D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR014D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Langkho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">လင်းခေးခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR014D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shan (North)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR015D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lashio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">လားရှိုးခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR015D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR015D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မူဆယ်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR015D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR015D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyaukme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ကျောက်မဲခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR015D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 77/2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another District is Mongmit (MMR015D008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR015D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kunlong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ကွမ်းလုံခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR015D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 45/2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merged with Lashio District (MMR015D001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR015D005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laukkaing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">လောက်ကိုင်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR015D005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 130/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organized as Kokang Self-Administered Zone (MMR015S002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR015S501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wa Self-Administered Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR015D006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hopang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ဟိုပန်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR015D006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200/21-74/U-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 930/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another distrct is Matman District (MMR015D007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR015D007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မက်မန်းခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR015D007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split from Hopang District (MMR015D006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR015D008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongmit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မိုးမိတ်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR015D008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split from Kyaukme District (MMR015D003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR015D221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laukkaing (Kokang SAZ)</t>
-  </si>
-  <si>
+    <t>ASIMMR013D004</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>Shan (South)</t>
+  </si>
+  <si>
+    <t>MMR014D001</t>
+  </si>
+  <si>
+    <t>Taunggyi</t>
+  </si>
+  <si>
+    <t>တောင်ကြီးခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR014D001</t>
+  </si>
+  <si>
+    <t>MMR014D002</t>
+  </si>
+  <si>
+    <t>Loilen</t>
+  </si>
+  <si>
+    <t>လွိုင်လင်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR014D002</t>
+  </si>
+  <si>
+    <t>MMR014D003</t>
+  </si>
+  <si>
+    <t>Langkho</t>
+  </si>
+  <si>
+    <t>လင်းခေးခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR014D003</t>
+  </si>
+  <si>
+    <t>MMR015</t>
+  </si>
+  <si>
+    <t>Shan (North)</t>
+  </si>
+  <si>
+    <t>MMR015D001</t>
+  </si>
+  <si>
+    <t>Lashio</t>
+  </si>
+  <si>
+    <t>လားရှိုးခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR015D001</t>
+  </si>
+  <si>
+    <t>MMR015D002</t>
+  </si>
+  <si>
+    <t>Muse</t>
+  </si>
+  <si>
+    <t>မူဆယ်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR015D002</t>
+  </si>
+  <si>
+    <t>MMR015D003</t>
+  </si>
+  <si>
+    <t>Kyaukme</t>
+  </si>
+  <si>
+    <t>ကျောက်မဲခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR015D003</t>
+  </si>
+  <si>
+    <t>No. 77/2014</t>
+  </si>
+  <si>
+    <t>Another District is Mongmit (MMR015D008)</t>
+  </si>
+  <si>
+    <t>MMR015D004</t>
+  </si>
+  <si>
+    <t>Kunlong</t>
+  </si>
+  <si>
+    <t>ကွမ်းလုံခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR015D004</t>
+  </si>
+  <si>
+    <t>No. 45/2014</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>Merged with Lashio District (MMR015D001)</t>
+  </si>
+  <si>
+    <t>MMR015D005</t>
+  </si>
+  <si>
+    <t>Laukkaing</t>
+  </si>
+  <si>
+    <t>လောက်ကိုင်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR015D005</t>
+  </si>
+  <si>
+    <t>No. 130/2019</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>organized as Kokang Self-Administered Zone (MMR015S002)</t>
+  </si>
+  <si>
+    <t>MMR015S501</t>
+  </si>
+  <si>
+    <t>Wa Self-Administered Division</t>
+  </si>
+  <si>
+    <t>MMR015D006</t>
+  </si>
+  <si>
+    <t>Hopang</t>
+  </si>
+  <si>
+    <t>ဟိုပန်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR015D006</t>
+  </si>
+  <si>
+    <t>200/21-74/U-1</t>
+  </si>
+  <si>
+    <t>No. 930/2013</t>
+  </si>
+  <si>
+    <t>Another distrct is Matman District (MMR015D007)</t>
+  </si>
+  <si>
+    <t>MMR015D007</t>
+  </si>
+  <si>
+    <t>Matman</t>
+  </si>
+  <si>
+    <t>မက်မန်းခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR015D007</t>
+  </si>
+  <si>
+    <t>Split from Hopang District (MMR015D006)</t>
+  </si>
+  <si>
+    <t>MMR015D008</t>
+  </si>
+  <si>
+    <t>Mongmit</t>
+  </si>
+  <si>
+    <t>မိုးမိတ်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR015D008</t>
+  </si>
+  <si>
+    <t>Split from Kyaukme District (MMR015D003)</t>
+  </si>
+  <si>
+    <t>MMR015D221</t>
+  </si>
+  <si>
+    <t>Laukkaing (Kokang SAZ)</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1210,7 +1219,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">လောက်ကိုင်</t>
+      <t>လောက်ကိုင်</t>
     </r>
     <r>
       <rPr>
@@ -1219,7 +1228,7 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">-</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -1237,7 +1246,7 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -1246,7 +1255,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">၁</t>
+      <t>၁</t>
     </r>
     <r>
       <rPr>
@@ -1255,22 +1264,25 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ASIMMR015D221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field Sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR015D331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mong Maw (Wa SAD)</t>
-  </si>
-  <si>
+    <t>ASIMMR015D221</t>
+  </si>
+  <si>
+    <t>Field Sources</t>
+  </si>
+  <si>
+    <t>MMR015D331</t>
+  </si>
+  <si>
+    <t>Mong Maw (Wa SAD)</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1278,7 +1290,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">မိုင်းမော</t>
+      <t>မိုင်းမော</t>
     </r>
     <r>
       <rPr>
@@ -1287,7 +1299,7 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">-</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -1305,7 +1317,7 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -1314,7 +1326,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">၂</t>
+      <t>၂</t>
     </r>
     <r>
       <rPr>
@@ -1323,19 +1335,22 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ASIMMR015D331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR015D332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wein Kawng (Wein Kao) (Wa SAD)</t>
-  </si>
-  <si>
+    <t>ASIMMR015D331</t>
+  </si>
+  <si>
+    <t>MMR015D332</t>
+  </si>
+  <si>
+    <t>Wein Kawng (Wein Kao) (Wa SAD)</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1343,7 +1358,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ဝိန်းကောင်</t>
+      <t>ဝိန်းကောင်</t>
     </r>
     <r>
       <rPr>
@@ -1352,7 +1367,7 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">-</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -1370,7 +1385,7 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -1379,7 +1394,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">၂</t>
+      <t>၂</t>
     </r>
     <r>
       <rPr>
@@ -1388,76 +1403,79 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ASIMMR015D332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shan (East)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR016D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kengtung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ကျိုင်းတုံခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR016D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR016D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monghsat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မိုင်းဆတ်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR016D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR016D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tachileik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">တာချီလိတ်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR016D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR016D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monghpyak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မိုင်းဖြတ်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR016D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merged with Tachileik District (MMR016D003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR016D333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mong Pawk (Wa SAD)</t>
-  </si>
-  <si>
+    <t>ASIMMR015D332</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>Shan (East)</t>
+  </si>
+  <si>
+    <t>MMR016D001</t>
+  </si>
+  <si>
+    <t>Kengtung</t>
+  </si>
+  <si>
+    <t>ကျိုင်းတုံခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR016D001</t>
+  </si>
+  <si>
+    <t>MMR016D002</t>
+  </si>
+  <si>
+    <t>Monghsat</t>
+  </si>
+  <si>
+    <t>မိုင်းဆတ်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR016D002</t>
+  </si>
+  <si>
+    <t>MMR016D003</t>
+  </si>
+  <si>
+    <t>Tachileik</t>
+  </si>
+  <si>
+    <t>တာချီလိတ်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR016D003</t>
+  </si>
+  <si>
+    <t>MMR016D004</t>
+  </si>
+  <si>
+    <t>Monghpyak</t>
+  </si>
+  <si>
+    <t>မိုင်းဖြတ်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR016D004</t>
+  </si>
+  <si>
+    <t>Merged with Tachileik District (MMR016D003)</t>
+  </si>
+  <si>
+    <t>MMR016D333</t>
+  </si>
+  <si>
+    <t>Mong Pawk (Wa SAD)</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1465,7 +1483,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">မိုင်းပေါက်</t>
+      <t>မိုင်းပေါက်</t>
     </r>
     <r>
       <rPr>
@@ -1474,7 +1492,7 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">-</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -1492,7 +1510,7 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -1501,7 +1519,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">၂</t>
+      <t>၂</t>
     </r>
     <r>
       <rPr>
@@ -1510,163 +1528,141 @@
         <rFont val="Pyidaungsu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ASIMMR016D333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayeyarwady</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR017D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ပုသိမ်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR017D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR017D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hinthada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ဟင်္သာတခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR017D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR017D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myaungmya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မြောင်းမြခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR017D003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR017D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labutta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">လပွတ္တာခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR017D004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR017D005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maubin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">မအူပင်ခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR017D005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR017D006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ဖျာပုံခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR017D006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nay Pyi Taw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR018D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oke Ta Ra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ဥတ္တရခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR018D001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 116/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split from Nay Pyi Taw Distict (MMR010D008) which was orgnized in 29 January 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR018D002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Det Khi Na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ဒက္ခိဏခရိုင်</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIMMR018D002</t>
+    <t>ASIMMR016D333</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>Ayeyarwady</t>
+  </si>
+  <si>
+    <t>MMR017D001</t>
+  </si>
+  <si>
+    <t>Pathein</t>
+  </si>
+  <si>
+    <t>ပုသိမ်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR017D001</t>
+  </si>
+  <si>
+    <t>MMR017D002</t>
+  </si>
+  <si>
+    <t>Hinthada</t>
+  </si>
+  <si>
+    <t>ဟင်္သာတခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR017D002</t>
+  </si>
+  <si>
+    <t>MMR017D003</t>
+  </si>
+  <si>
+    <t>Myaungmya</t>
+  </si>
+  <si>
+    <t>မြောင်းမြခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR017D003</t>
+  </si>
+  <si>
+    <t>MMR017D004</t>
+  </si>
+  <si>
+    <t>Labutta</t>
+  </si>
+  <si>
+    <t>လပွတ္တာခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR017D004</t>
+  </si>
+  <si>
+    <t>MMR017D005</t>
+  </si>
+  <si>
+    <t>Maubin</t>
+  </si>
+  <si>
+    <t>မအူပင်ခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR017D005</t>
+  </si>
+  <si>
+    <t>MMR017D006</t>
+  </si>
+  <si>
+    <t>Pyapon</t>
+  </si>
+  <si>
+    <t>ဖျာပုံခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR017D006</t>
+  </si>
+  <si>
+    <t>MMR018</t>
+  </si>
+  <si>
+    <t>Nay Pyi Taw</t>
+  </si>
+  <si>
+    <t>MMR018D001</t>
+  </si>
+  <si>
+    <t>Oke Ta Ra</t>
+  </si>
+  <si>
+    <t>ဥတ္တရခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR018D001</t>
+  </si>
+  <si>
+    <t>No. 116/2013</t>
+  </si>
+  <si>
+    <t>Split from Nay Pyi Taw Distict (MMR010D008) which was orgnized in 29 January 2009</t>
+  </si>
+  <si>
+    <t>MMR018D002</t>
+  </si>
+  <si>
+    <t>Det Khi Na</t>
+  </si>
+  <si>
+    <t>ဒက္ခိဏခရိုင်</t>
+  </si>
+  <si>
+    <t>ASIMMR018D002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="mmm\-yy"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd-mmm-yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1682,8 +1678,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Pyidaungsu"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1696,186 +1692,451 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <fgColor rgb="FFc0c0c0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FFc0c0c0"/>
       </left>
       <right style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FFc0c0c0"/>
       </right>
       <top style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FFc0c0c0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
+        <color rgb="FFc0c0c0"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="18">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="17" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal_Sheet2" xfId="20"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F818D"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="1" width="12.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="60.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="1" width="11.48"/>
+    <col min="1" max="1" style="14" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="42.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="30.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="31.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="16" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="17" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="17" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="60.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1884,29 +2145,29 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1931,18 +2192,22 @@
         <v>24</v>
       </c>
       <c r="J2" s="5"/>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="8"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1967,18 +2232,22 @@
         <v>24</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="8"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -2003,18 +2272,22 @@
         <v>24</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="N4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="8"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -2039,18 +2312,22 @@
         <v>24</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="N5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="8"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -2075,18 +2352,22 @@
         <v>24</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="N6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="8"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="22.5">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
@@ -2111,18 +2392,22 @@
         <v>24</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="N7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="8"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="22.5">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -2147,29 +2432,30 @@
         <v>24</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="5" t="n">
-        <v>40555</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="K8" s="10">
+        <v>25569.27130787037</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="N8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>56</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="22.5">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -2194,18 +2480,22 @@
         <v>24</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="N9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="8"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="22.5">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -2230,18 +2520,22 @@
         <v>24</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="N10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="8"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="22.5">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -2265,27 +2559,29 @@
       <c r="I11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="5" t="n">
-        <v>40555</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="J11" s="10">
+        <v>25569.27130787037</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="6"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="9"/>
       <c r="R11" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="22.5">
       <c r="A12" s="3" t="s">
         <v>71</v>
       </c>
@@ -2310,29 +2606,30 @@
         <v>24</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="5" t="n">
-        <v>41120</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="K12" s="10">
+        <v>25569.27130787037</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="6" t="s">
+      <c r="N12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="9" t="s">
         <v>56</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="22.5">
       <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
@@ -2353,33 +2650,34 @@
       <c r="H13" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="5" t="n">
-        <v>42940</v>
-      </c>
-      <c r="M13" s="7" t="s">
+      <c r="K13" s="10">
+        <v>25569.271331018517</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="6" t="s">
+      <c r="N13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="9" t="s">
         <v>56</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="22.5">
       <c r="A14" s="3" t="s">
         <v>71</v>
       </c>
@@ -2403,26 +2701,29 @@
       <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="5" t="n">
-        <v>41120</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="J14" s="10">
+        <v>25569.27130787037</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="8"/>
       <c r="R14" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="22.5">
       <c r="A15" s="3" t="s">
         <v>71</v>
       </c>
@@ -2441,27 +2742,30 @@
         <v>92</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>42940</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="I15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="10">
+        <v>25569.271331018517</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="8"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="22.5">
       <c r="A16" s="3" t="s">
         <v>93</v>
       </c>
@@ -2486,18 +2790,22 @@
         <v>24</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="N16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="8"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="22.5">
       <c r="A17" s="3" t="s">
         <v>93</v>
       </c>
@@ -2522,29 +2830,30 @@
         <v>24</v>
       </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="8" t="n">
-        <v>42093</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="K17" s="10">
+        <v>25569.271319444444</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="1" t="s">
+      <c r="N17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="9" t="s">
         <v>56</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="22.5">
       <c r="A18" s="3" t="s">
         <v>93</v>
       </c>
@@ -2569,30 +2878,30 @@
         <v>24</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="8" t="n">
-        <v>41444</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="1" t="s">
+      <c r="K18" s="10">
+        <v>25569.27130787037</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="N18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="9" t="s">
         <v>56</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="22.5">
       <c r="A19" s="3" t="s">
         <v>93</v>
       </c>
@@ -2613,34 +2922,34 @@
       <c r="H19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="8" t="n">
-        <v>43439</v>
-      </c>
-      <c r="L19" s="6"/>
+      <c r="K19" s="10">
+        <v>25569.271331018517</v>
+      </c>
+      <c r="L19" s="9"/>
       <c r="M19" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="6" t="s">
+      <c r="N19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="22.5">
       <c r="A20" s="3" t="s">
         <v>93</v>
       </c>
@@ -2665,18 +2974,22 @@
         <v>24</v>
       </c>
       <c r="J20" s="5"/>
-      <c r="N20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="8"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="22.5">
       <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
@@ -2701,18 +3014,22 @@
         <v>24</v>
       </c>
       <c r="J21" s="5"/>
-      <c r="N21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="8"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="22.5">
       <c r="A22" s="3" t="s">
         <v>93</v>
       </c>
@@ -2737,18 +3054,22 @@
         <v>24</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="N22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="8"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="22.5">
       <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
@@ -2773,18 +3094,22 @@
         <v>24</v>
       </c>
       <c r="J23" s="5"/>
-      <c r="N23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="8"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="22.5">
       <c r="A24" s="3" t="s">
         <v>93</v>
       </c>
@@ -2808,27 +3133,29 @@
       <c r="I24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="8" t="n">
-        <v>41444</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="1" t="s">
+      <c r="J24" s="10">
+        <v>25569.27130787037</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="8"/>
       <c r="R24" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="22.5">
       <c r="A25" s="3" t="s">
         <v>93</v>
       </c>
@@ -2852,27 +3179,29 @@
       <c r="I25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="5" t="n">
-        <v>42093</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="1" t="s">
+      <c r="J25" s="10">
+        <v>25569.271319444444</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="8"/>
       <c r="R25" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="22.5">
       <c r="A26" s="3" t="s">
         <v>93</v>
       </c>
@@ -2894,25 +3223,27 @@
       <c r="I26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="8" t="n">
-        <v>43439</v>
-      </c>
-      <c r="K26" s="8"/>
+      <c r="J26" s="10">
+        <v>25569.271331018517</v>
+      </c>
+      <c r="K26" s="5"/>
       <c r="L26" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="8"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="3" t="s">
         <v>145</v>
       </c>
@@ -2937,18 +3268,22 @@
         <v>24</v>
       </c>
       <c r="J27" s="5"/>
-      <c r="N27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="8"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="3" t="s">
         <v>145</v>
       </c>
@@ -2973,18 +3308,22 @@
         <v>24</v>
       </c>
       <c r="J28" s="5"/>
-      <c r="N28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="8"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="3" t="s">
         <v>145</v>
       </c>
@@ -3009,18 +3348,22 @@
         <v>24</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="N29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="8"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="3" t="s">
         <v>159</v>
       </c>
@@ -3045,18 +3388,22 @@
         <v>24</v>
       </c>
       <c r="J30" s="5"/>
-      <c r="N30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="8"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="3" t="s">
         <v>159</v>
       </c>
@@ -3081,18 +3428,22 @@
         <v>24</v>
       </c>
       <c r="J31" s="5"/>
-      <c r="N31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="8"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="3" t="s">
         <v>169</v>
       </c>
@@ -3117,18 +3468,22 @@
         <v>24</v>
       </c>
       <c r="J32" s="5"/>
-      <c r="N32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="8"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="3" t="s">
         <v>169</v>
       </c>
@@ -3153,18 +3508,22 @@
         <v>24</v>
       </c>
       <c r="J33" s="5"/>
-      <c r="N33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="8"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="3" t="s">
         <v>179</v>
       </c>
@@ -3189,18 +3548,22 @@
         <v>24</v>
       </c>
       <c r="J34" s="5"/>
-      <c r="N34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="8"/>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="3" t="s">
         <v>179</v>
       </c>
@@ -3225,18 +3588,22 @@
         <v>24</v>
       </c>
       <c r="J35" s="5"/>
-      <c r="N35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="8"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="3" t="s">
         <v>179</v>
       </c>
@@ -3261,18 +3628,22 @@
         <v>24</v>
       </c>
       <c r="J36" s="5"/>
-      <c r="N36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="8"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="3" t="s">
         <v>179</v>
       </c>
@@ -3297,18 +3668,22 @@
         <v>24</v>
       </c>
       <c r="J37" s="5"/>
-      <c r="N37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K37" s="6"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="8"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="3" t="s">
         <v>179</v>
       </c>
@@ -3333,18 +3708,22 @@
         <v>24</v>
       </c>
       <c r="J38" s="5"/>
-      <c r="N38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="8"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="3" t="s">
         <v>200</v>
       </c>
@@ -3369,18 +3748,22 @@
         <v>24</v>
       </c>
       <c r="J39" s="5"/>
-      <c r="N39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="8"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="3" t="s">
         <v>200</v>
       </c>
@@ -3405,18 +3788,22 @@
         <v>24</v>
       </c>
       <c r="J40" s="5"/>
-      <c r="N40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="8"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="3" t="s">
         <v>200</v>
       </c>
@@ -3441,18 +3828,22 @@
         <v>24</v>
       </c>
       <c r="J41" s="5"/>
-      <c r="N41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="8"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="3" t="s">
         <v>200</v>
       </c>
@@ -3477,18 +3868,22 @@
         <v>24</v>
       </c>
       <c r="J42" s="5"/>
-      <c r="N42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="8"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="3" t="s">
         <v>200</v>
       </c>
@@ -3513,18 +3908,22 @@
         <v>24</v>
       </c>
       <c r="J43" s="5"/>
-      <c r="N43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="8"/>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="3" t="s">
         <v>200</v>
       </c>
@@ -3549,18 +3948,22 @@
         <v>24</v>
       </c>
       <c r="J44" s="5"/>
-      <c r="N44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K44" s="6"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="8"/>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="3" t="s">
         <v>200</v>
       </c>
@@ -3585,18 +3988,22 @@
         <v>24</v>
       </c>
       <c r="J45" s="5"/>
-      <c r="N45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K45" s="6"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="8"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="3" t="s">
         <v>229</v>
       </c>
@@ -3621,18 +4028,22 @@
         <v>24</v>
       </c>
       <c r="J46" s="5"/>
-      <c r="N46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K46" s="6"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q46" s="8"/>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="3" t="s">
         <v>229</v>
       </c>
@@ -3657,18 +4068,22 @@
         <v>24</v>
       </c>
       <c r="J47" s="5"/>
-      <c r="N47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K47" s="6"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47" s="8"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="3" t="s">
         <v>239</v>
       </c>
@@ -3693,30 +4108,30 @@
         <v>24</v>
       </c>
       <c r="J48" s="5"/>
-      <c r="K48" s="5" t="n">
-        <v>41267</v>
-      </c>
-      <c r="L48" s="7"/>
-      <c r="M48" s="1" t="s">
+      <c r="K48" s="10">
+        <v>25569.27130787037</v>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q48" s="1" t="s">
+      <c r="N48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q48" s="9" t="s">
         <v>56</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="3" t="s">
         <v>239</v>
       </c>
@@ -3741,18 +4156,22 @@
         <v>24</v>
       </c>
       <c r="J49" s="5"/>
-      <c r="N49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K49" s="6"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" s="8"/>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="3" t="s">
         <v>239</v>
       </c>
@@ -3777,18 +4196,22 @@
         <v>24</v>
       </c>
       <c r="J50" s="5"/>
-      <c r="N50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K50" s="6"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="8"/>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="3" t="s">
         <v>239</v>
       </c>
@@ -3813,18 +4236,22 @@
         <v>24</v>
       </c>
       <c r="J51" s="5"/>
-      <c r="N51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K51" s="6"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="8"/>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="3" t="s">
         <v>239</v>
       </c>
@@ -3848,24 +4275,27 @@
       <c r="I52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J52" s="5" t="n">
-        <v>41267</v>
-      </c>
-      <c r="L52" s="7" t="s">
+      <c r="J52" s="10">
+        <v>25569.27130787037</v>
+      </c>
+      <c r="K52" s="6"/>
+      <c r="L52" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="M52" s="8"/>
+      <c r="N52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q52" s="8"/>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="3" t="s">
         <v>263</v>
       </c>
@@ -3890,18 +4320,22 @@
         <v>24</v>
       </c>
       <c r="J53" s="5"/>
-      <c r="N53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K53" s="6"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q53" s="8"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="3" t="s">
         <v>263</v>
       </c>
@@ -3926,18 +4360,22 @@
         <v>24</v>
       </c>
       <c r="J54" s="5"/>
-      <c r="N54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K54" s="6"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q54" s="8"/>
       <c r="R54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="3" t="s">
         <v>263</v>
       </c>
@@ -3962,18 +4400,22 @@
         <v>24</v>
       </c>
       <c r="J55" s="5"/>
-      <c r="N55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K55" s="6"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" s="8"/>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="3" t="s">
         <v>263</v>
       </c>
@@ -3998,18 +4440,22 @@
         <v>24</v>
       </c>
       <c r="J56" s="5"/>
-      <c r="N56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K56" s="6"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56" s="8"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="3" t="s">
         <v>281</v>
       </c>
@@ -4034,18 +4480,22 @@
         <v>24</v>
       </c>
       <c r="J57" s="5"/>
-      <c r="N57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q57" s="8"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="3" t="s">
         <v>281</v>
       </c>
@@ -4070,18 +4520,22 @@
         <v>24</v>
       </c>
       <c r="J58" s="5"/>
-      <c r="N58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q58" s="8"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="3" t="s">
         <v>281</v>
       </c>
@@ -4106,18 +4560,22 @@
         <v>24</v>
       </c>
       <c r="J59" s="5"/>
-      <c r="N59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K59" s="6"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q59" s="8"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="3" t="s">
         <v>295</v>
       </c>
@@ -4142,19 +4600,22 @@
         <v>24</v>
       </c>
       <c r="J60" s="5"/>
-      <c r="K60" s="10"/>
-      <c r="N60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K60" s="12"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P60" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q60" s="8"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="3" t="s">
         <v>295</v>
       </c>
@@ -4179,19 +4640,22 @@
         <v>24</v>
       </c>
       <c r="J61" s="5"/>
-      <c r="K61" s="10"/>
-      <c r="N61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K61" s="12"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q61" s="8"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="3" t="s">
         <v>295</v>
       </c>
@@ -4216,29 +4680,30 @@
         <v>24</v>
       </c>
       <c r="J62" s="5"/>
-      <c r="K62" s="10" t="n">
-        <v>41669</v>
-      </c>
-      <c r="M62" s="1" t="s">
+      <c r="K62" s="13">
+        <v>25569.271319444444</v>
+      </c>
+      <c r="L62" s="7"/>
+      <c r="M62" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="N62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q62" s="1" t="s">
+      <c r="N62" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P62" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q62" s="9" t="s">
         <v>56</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="3" t="s">
         <v>295</v>
       </c>
@@ -4262,30 +4727,31 @@
       <c r="I63" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10" t="n">
-        <v>41656</v>
-      </c>
-      <c r="M63" s="1" t="s">
+      <c r="J63" s="12"/>
+      <c r="K63" s="13">
+        <v>25569.271319444444</v>
+      </c>
+      <c r="L63" s="7"/>
+      <c r="M63" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="N63" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="O63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P63" s="1" t="s">
+      <c r="O63" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P63" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="Q63" s="9" t="s">
         <v>317</v>
       </c>
       <c r="R63" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="3" t="s">
         <v>295</v>
       </c>
@@ -4310,29 +4776,30 @@
         <v>24</v>
       </c>
       <c r="J64" s="5"/>
-      <c r="K64" s="10" t="n">
-        <v>43601</v>
-      </c>
-      <c r="M64" s="1" t="s">
+      <c r="K64" s="13">
+        <v>25569.271342592594</v>
+      </c>
+      <c r="L64" s="7"/>
+      <c r="M64" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="N64" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P64" s="1" t="s">
+      <c r="O64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P64" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="Q64" s="9" t="s">
         <v>324</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="3" t="s">
         <v>295</v>
       </c>
@@ -4360,35 +4827,35 @@
       <c r="I65" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J65" s="10" t="n">
-        <v>40786</v>
-      </c>
-      <c r="K65" s="10" t="n">
-        <v>41275</v>
-      </c>
-      <c r="L65" s="10" t="s">
+      <c r="J65" s="13">
+        <v>25569.27130787037</v>
+      </c>
+      <c r="K65" s="13">
+        <v>25569.27130787037</v>
+      </c>
+      <c r="L65" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="M65" s="5" t="s">
+      <c r="M65" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="N65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q65" s="1" t="s">
+      <c r="N65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q65" s="9" t="s">
         <v>56</v>
       </c>
       <c r="R65" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="3" t="s">
         <v>295</v>
       </c>
@@ -4416,27 +4883,29 @@
       <c r="I66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J66" s="10" t="n">
-        <v>41275</v>
-      </c>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10" t="s">
+      <c r="J66" s="13">
+        <v>25569.27130787037</v>
+      </c>
+      <c r="K66" s="12"/>
+      <c r="L66" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="N66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="M66" s="8"/>
+      <c r="N66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q66" s="8"/>
       <c r="R66" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="3" t="s">
         <v>295</v>
       </c>
@@ -4460,27 +4929,29 @@
       <c r="I67" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J67" s="10" t="n">
-        <v>41669</v>
-      </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10" t="s">
+      <c r="J67" s="13">
+        <v>25569.271319444444</v>
+      </c>
+      <c r="K67" s="12"/>
+      <c r="L67" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="N67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="M67" s="8"/>
+      <c r="N67" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P67" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q67" s="8"/>
       <c r="R67" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="3" t="s">
         <v>295</v>
       </c>
@@ -4504,21 +4975,25 @@
       <c r="I68" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="J68" s="5" t="n">
-        <v>40057</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J68" s="10">
+        <v>25569.271296296298</v>
+      </c>
+      <c r="K68" s="6"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P68" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q68" s="8"/>
       <c r="R68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="3" t="s">
         <v>295</v>
       </c>
@@ -4542,21 +5017,25 @@
       <c r="I69" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="J69" s="5" t="n">
-        <v>40057</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J69" s="10">
+        <v>25569.271296296298</v>
+      </c>
+      <c r="K69" s="6"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q69" s="8"/>
       <c r="R69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="3" t="s">
         <v>295</v>
       </c>
@@ -4580,21 +5059,25 @@
       <c r="I70" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="J70" s="5" t="n">
-        <v>40057</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J70" s="10">
+        <v>25569.271296296298</v>
+      </c>
+      <c r="K70" s="6"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P70" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q70" s="8"/>
       <c r="R70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="3" t="s">
         <v>358</v>
       </c>
@@ -4619,18 +5102,22 @@
         <v>24</v>
       </c>
       <c r="J71" s="5"/>
-      <c r="N71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K71" s="6"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q71" s="8"/>
       <c r="R71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="3" t="s">
         <v>358</v>
       </c>
@@ -4655,18 +5142,22 @@
         <v>24</v>
       </c>
       <c r="J72" s="5"/>
-      <c r="N72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K72" s="6"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O72" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P72" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q72" s="8"/>
       <c r="R72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="3" t="s">
         <v>358</v>
       </c>
@@ -4691,18 +5182,22 @@
         <v>24</v>
       </c>
       <c r="J73" s="5"/>
-      <c r="N73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K73" s="6"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O73" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q73" s="8"/>
       <c r="R73" s="3"/>
     </row>
-    <row r="74" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="3" t="s">
         <v>358</v>
       </c>
@@ -4726,30 +5221,31 @@
       <c r="I74" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10" t="n">
-        <v>41656</v>
-      </c>
-      <c r="M74" s="1" t="s">
+      <c r="J74" s="12"/>
+      <c r="K74" s="13">
+        <v>25569.271319444444</v>
+      </c>
+      <c r="L74" s="7"/>
+      <c r="M74" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="N74" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="O74" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P74" s="1" t="s">
+      <c r="O74" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P74" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="Q74" s="1" t="s">
+      <c r="Q74" s="9" t="s">
         <v>317</v>
       </c>
       <c r="R74" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="3" t="s">
         <v>358</v>
       </c>
@@ -4773,21 +5269,25 @@
       <c r="I75" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="J75" s="5" t="n">
-        <v>40057</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J75" s="10">
+        <v>25569.271296296298</v>
+      </c>
+      <c r="K75" s="6"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O75" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P75" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q75" s="8"/>
       <c r="R75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="3" t="s">
         <v>381</v>
       </c>
@@ -4812,18 +5312,22 @@
         <v>24</v>
       </c>
       <c r="J76" s="5"/>
-      <c r="N76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K76" s="6"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O76" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P76" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q76" s="8"/>
       <c r="R76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="3" t="s">
         <v>381</v>
       </c>
@@ -4848,18 +5352,22 @@
         <v>24</v>
       </c>
       <c r="J77" s="5"/>
-      <c r="N77" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K77" s="6"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O77" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q77" s="8"/>
       <c r="R77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="3" t="s">
         <v>381</v>
       </c>
@@ -4884,18 +5392,22 @@
         <v>24</v>
       </c>
       <c r="J78" s="5"/>
-      <c r="N78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K78" s="6"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P78" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q78" s="8"/>
       <c r="R78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="3" t="s">
         <v>381</v>
       </c>
@@ -4920,18 +5432,22 @@
         <v>24</v>
       </c>
       <c r="J79" s="5"/>
-      <c r="N79" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K79" s="6"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O79" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P79" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q79" s="8"/>
       <c r="R79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="3" t="s">
         <v>381</v>
       </c>
@@ -4956,18 +5472,22 @@
         <v>24</v>
       </c>
       <c r="J80" s="5"/>
-      <c r="N80" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K80" s="6"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O80" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P80" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q80" s="8"/>
       <c r="R80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="3" t="s">
         <v>381</v>
       </c>
@@ -4992,18 +5512,22 @@
         <v>24</v>
       </c>
       <c r="J81" s="5"/>
-      <c r="N81" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K81" s="6"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q81" s="8"/>
       <c r="R81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="3" t="s">
         <v>407</v>
       </c>
@@ -5027,26 +5551,29 @@
       <c r="I82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J82" s="10" t="n">
-        <v>41285</v>
-      </c>
-      <c r="L82" s="1" t="s">
+      <c r="J82" s="13">
+        <v>25569.27130787037</v>
+      </c>
+      <c r="K82" s="6"/>
+      <c r="L82" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="N82" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="M82" s="8"/>
+      <c r="N82" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O82" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P82" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q82" s="8"/>
       <c r="R82" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="3" t="s">
         <v>407</v>
       </c>
@@ -5070,32 +5597,29 @@
       <c r="I83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J83" s="10" t="n">
-        <v>41285</v>
-      </c>
-      <c r="L83" s="1" t="s">
+      <c r="J83" s="13">
+        <v>25569.27130787037</v>
+      </c>
+      <c r="K83" s="6"/>
+      <c r="L83" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="N83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="M83" s="8"/>
+      <c r="N83" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P83" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q83" s="8"/>
       <c r="R83" s="3" t="s">
         <v>414</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>